--- a/calculations.xlsx
+++ b/calculations.xlsx
@@ -964,7 +964,7 @@
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1012,7 +1012,7 @@
         <v>3</v>
       </c>
       <c r="B6">
-        <v>6.4769999999999994E-2</v>
+        <v>5.2069999999999998E-2</v>
       </c>
       <c r="C6" t="s">
         <v>39</v>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B11" s="5">
         <f>B5*B6</f>
-        <v>1.9430999999999997E-2</v>
+        <v>1.5620999999999999E-2</v>
       </c>
       <c r="C11" t="s">
         <v>40</v>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B19" s="5">
         <f>100*COUNTIF(LD!L2:L42,FALSE)/40</f>
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B20" s="5">
         <f>LD!J2</f>
-        <v>8.2426671455984</v>
+        <v>10.253073766476057</v>
       </c>
       <c r="C20" t="s">
         <v>51</v>
@@ -1263,11 +1263,11 @@
       </c>
       <c r="I2">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H2*Sheet1!$B$11))</f>
-        <v>12.839522690192497</v>
+        <v>14.319967713983196</v>
       </c>
       <c r="J2">
         <f>I2*I2*Sheet1!$B$2/2</f>
-        <v>8.2426671455984</v>
+        <v>10.253073766476057</v>
       </c>
       <c r="K2">
         <f>LOOKUP(G2,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1285,11 +1285,11 @@
       </c>
       <c r="B3">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A3*LD!$A3*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>3.4688670541874987E-2</v>
+        <v>2.2418937016874998E-2</v>
       </c>
       <c r="C3">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A3*LD!$A3*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.8907225451562492E-3</v>
+        <v>1.8682447514062497E-3</v>
       </c>
       <c r="F3">
         <f>FORECAST(F1,'Standard Atmosphere'!E4:E24,'Standard Atmosphere'!A4:A24)</f>
@@ -1305,11 +1305,11 @@
       </c>
       <c r="I3">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H3*Sheet1!$B$11))</f>
-        <v>13.476109458576429</v>
+        <v>15.029955319470275</v>
       </c>
       <c r="J3">
         <f>I3*I3*Sheet1!$B$2/2</f>
-        <v>9.0802763069766552</v>
+        <v>11.294977845263642</v>
       </c>
       <c r="K3">
         <f>LOOKUP(G3,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1327,11 +1327,11 @@
       </c>
       <c r="B4">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A4*LD!$A4*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.13875468216749995</v>
+        <v>8.9675748067499991E-2</v>
       </c>
       <c r="C4">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A4*LD!$A4*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.1562890180624997E-2</v>
+        <v>7.472979005624999E-3</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G42" si="2">G3+1000</f>
@@ -1343,11 +1343,11 @@
       </c>
       <c r="I4">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H4*Sheet1!$B$11))</f>
-        <v>14.161269511870955</v>
+        <v>15.794116891425215</v>
       </c>
       <c r="J4">
         <f>I4*I4*Sheet1!$B$2/2</f>
-        <v>10.027077709392293</v>
+        <v>12.472706419000167</v>
       </c>
       <c r="K4">
         <f>LOOKUP(G4,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1365,11 +1365,11 @@
       </c>
       <c r="B5">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A5*LD!$A5*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.31219803487687492</v>
+        <v>0.20177043315187498</v>
       </c>
       <c r="C5">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A5*LD!$A5*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.6016502906406239E-2</v>
+        <v>1.6814202762656251E-2</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
@@ -1381,11 +1381,11 @@
       </c>
       <c r="I5">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H5*Sheet1!$B$11))</f>
-        <v>14.902644032186783</v>
+        <v>16.620974668856604</v>
       </c>
       <c r="J5">
         <f>I5*I5*Sheet1!$B$2/2</f>
-        <v>11.104439957503619</v>
+        <v>13.812839947138645</v>
       </c>
       <c r="K5">
         <f>LOOKUP(G5,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="B6">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A6*LD!$A6*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.55501872866999979</v>
+        <v>0.35870299226999997</v>
       </c>
       <c r="C6">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A6*LD!$A6*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>4.6251560722499988E-2</v>
+        <v>2.9891916022499996E-2</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
@@ -1419,11 +1419,11 @@
       </c>
       <c r="I6">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H6*Sheet1!$B$11))</f>
-        <v>15.698889899918843</v>
+        <v>17.509030665441685</v>
       </c>
       <c r="J6">
         <f>I6*I6*Sheet1!$B$2/2</f>
-        <v>12.322757204488694</v>
+        <v>15.328307742168867</v>
       </c>
       <c r="K6">
         <f>LOOKUP(G6,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1441,11 +1441,11 @@
       </c>
       <c r="B7">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A7*LD!$A7*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.86721676354687471</v>
+        <v>0.56047342542187495</v>
       </c>
       <c r="C7">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A7*LD!$A7*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>7.226806362890624E-2</v>
+        <v>4.670611878515625E-2</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="I7">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H7*Sheet1!$B$11))</f>
-        <v>16.55998860279383</v>
+        <v>18.469417271802183</v>
       </c>
       <c r="J7">
         <f>I7*I7*Sheet1!$B$2/2</f>
-        <v>13.711661126233077</v>
+        <v>17.055968717997242</v>
       </c>
       <c r="K7">
         <f>LOOKUP(G7,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B8">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A8*LD!$A8*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.2487921395074997</v>
+        <v>0.80708173260749994</v>
       </c>
       <c r="C8">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A8*LD!$A8*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.10406601162562495</v>
+        <v>6.7256811050625004E-2</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
@@ -1495,11 +1495,11 @@
       </c>
       <c r="I8">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H8*Sheet1!$B$11))</f>
-        <v>17.490895983552978</v>
+        <v>19.507661757896848</v>
       </c>
       <c r="J8">
         <f>I8*I8*Sheet1!$B$2/2</f>
-        <v>15.296572115373486</v>
+        <v>19.027443363025558</v>
       </c>
       <c r="K8">
         <f>LOOKUP(G8,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B9">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A9*LD!$A9*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.6997448565518745</v>
+        <v>1.0985279138268751</v>
       </c>
       <c r="C9">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A9*LD!$A9*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.14164540471265619</v>
+        <v>9.1543992818906239E-2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
@@ -1533,11 +1533,11 @@
       </c>
       <c r="I9">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H9*Sheet1!$B$11))</f>
-        <v>18.500817438063205</v>
+        <v>20.634030936191323</v>
       </c>
       <c r="J9">
         <f>I9*I9*Sheet1!$B$2/2</f>
-        <v>17.11401229382718</v>
+        <v>21.28816163378503</v>
       </c>
       <c r="K9">
         <f>LOOKUP(G9,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="L9" t="b">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1555,11 +1555,11 @@
       </c>
       <c r="B10">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A10*LD!$A10*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.2200749146799992</v>
+        <v>1.4348119690799999</v>
       </c>
       <c r="C10">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A10*LD!$A10*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.18500624288999995</v>
+        <v>0.11956766408999998</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
@@ -1571,11 +1571,11 @@
       </c>
       <c r="I10">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H10*Sheet1!$B$11))</f>
-        <v>19.597768922083819</v>
+        <v>21.857465032147239</v>
       </c>
       <c r="J10">
         <f>I10*I10*Sheet1!$B$2/2</f>
-        <v>19.203627336169721</v>
+        <v>23.887438881576969</v>
       </c>
       <c r="K10">
         <f>LOOKUP(G10,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1593,11 +1593,11 @@
       </c>
       <c r="B11">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A11*LD!$A11*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.8097823138918741</v>
+        <v>1.8159338983668749</v>
       </c>
       <c r="C11">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A11*LD!$A11*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.23414852615765622</v>
+        <v>0.15132782486390625</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
@@ -1609,11 +1609,11 @@
       </c>
       <c r="I11">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H11*Sheet1!$B$11))</f>
-        <v>20.792752773557719</v>
+        <v>23.190234994453448</v>
       </c>
       <c r="J11">
         <f>I11*I11*Sheet1!$B$2/2</f>
-        <v>21.616928395114613</v>
+        <v>26.889349954898666</v>
       </c>
       <c r="K11">
         <f>LOOKUP(G11,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1631,11 +1631,11 @@
       </c>
       <c r="B12">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A12*LD!$A12*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>3.4688670541874989</v>
+        <v>2.2418937016874998</v>
       </c>
       <c r="C12">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A12*LD!$A12*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.28907225451562496</v>
+        <v>0.186824475140625</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
@@ -1647,11 +1647,11 @@
       </c>
       <c r="I12">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H12*Sheet1!$B$11))</f>
-        <v>22.099333024189956</v>
+        <v>24.647468838439991</v>
       </c>
       <c r="J12">
         <f>I12*I12*Sheet1!$B$2/2</f>
-        <v>24.419026005702641</v>
+        <v>30.374886007093522</v>
       </c>
       <c r="K12">
         <f>LOOKUP(G12,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1669,11 +1669,11 @@
       </c>
       <c r="B13">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A13*LD!$A13*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>4.197329135566874</v>
+        <v>2.7126913790418752</v>
       </c>
       <c r="C13">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A13*LD!$A13*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.34977742796390615</v>
+        <v>0.22605761492015625</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
@@ -1685,11 +1685,11 @@
       </c>
       <c r="I13">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H13*Sheet1!$B$11))</f>
-        <v>22.099333024189956</v>
+        <v>24.647468838439991</v>
       </c>
       <c r="J13">
         <f>I13*I13*Sheet1!$B$2/2</f>
-        <v>24.419026005702641</v>
+        <v>30.374886007093522</v>
       </c>
       <c r="K13">
         <f>LOOKUP(G13,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1707,11 +1707,11 @@
       </c>
       <c r="B14">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A14*LD!$A14*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>4.9951685580299987</v>
+        <v>3.2283269304299997</v>
       </c>
       <c r="C14">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A14*LD!$A14*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.41626404650249982</v>
+        <v>0.26902724420250002</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="I14">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H14*Sheet1!$B$11))</f>
-        <v>22.099333024189956</v>
+        <v>24.647468838439991</v>
       </c>
       <c r="J14">
         <f>I14*I14*Sheet1!$B$2/2</f>
-        <v>24.419026005702641</v>
+        <v>30.374886007093522</v>
       </c>
       <c r="K14">
         <f>LOOKUP(G14,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="B15">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A15*LD!$A15*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>5.8623853215768733</v>
+        <v>3.7888003558518748</v>
       </c>
       <c r="C15">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A15*LD!$A15*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.48853211013140613</v>
+        <v>0.31573336298765625</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
@@ -1761,11 +1761,11 @@
       </c>
       <c r="I15">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H15*Sheet1!$B$11))</f>
-        <v>22.099333024189956</v>
+        <v>24.647468838439991</v>
       </c>
       <c r="J15">
         <f>I15*I15*Sheet1!$B$2/2</f>
-        <v>24.419026005702641</v>
+        <v>30.374886007093522</v>
       </c>
       <c r="K15">
         <f>LOOKUP(G15,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1783,11 +1783,11 @@
       </c>
       <c r="B16">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A16*LD!$A16*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>6.7989794262074978</v>
+        <v>4.3941116553075004</v>
       </c>
       <c r="C16">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A16*LD!$A16*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.56658161885062475</v>
+        <v>0.36617597127562496</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
@@ -1799,11 +1799,11 @@
       </c>
       <c r="I16">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H16*Sheet1!$B$11))</f>
-        <v>22.099333024189956</v>
+        <v>24.647468838439991</v>
       </c>
       <c r="J16">
         <f>I16*I16*Sheet1!$B$2/2</f>
-        <v>24.419026005702641</v>
+        <v>30.374886007093522</v>
       </c>
       <c r="K16">
         <f>LOOKUP(G16,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1821,11 +1821,11 @@
       </c>
       <c r="B17">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A17*LD!$A17*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>7.8049508719218723</v>
+        <v>5.0442608287968742</v>
       </c>
       <c r="C17">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A17*LD!$A17*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.65041257266015595</v>
+        <v>0.42035506906640624</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
@@ -1837,11 +1837,11 @@
       </c>
       <c r="I17">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H17*Sheet1!$B$11))</f>
-        <v>32.197521894640531</v>
+        <v>35.910016682606667</v>
       </c>
       <c r="J17">
         <f>I17*I17*Sheet1!$B$2/2</f>
-        <v>51.834020807792825</v>
+        <v>64.476464907254453</v>
       </c>
       <c r="K17">
         <f>LOOKUP(G17,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1859,11 +1859,11 @@
       </c>
       <c r="B18">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A18*LD!$A18*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>8.8802996587199967</v>
+        <v>5.7392478763199994</v>
       </c>
       <c r="C18">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A18*LD!$A18*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.7400249715599998</v>
+        <v>0.47827065635999993</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
@@ -1875,11 +1875,11 @@
       </c>
       <c r="I18">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H18*Sheet1!$B$11))</f>
-        <v>32.197521894640531</v>
+        <v>35.910016682606667</v>
       </c>
       <c r="J18">
         <f>I18*I18*Sheet1!$B$2/2</f>
-        <v>51.834020807792825</v>
+        <v>64.476464907254453</v>
       </c>
       <c r="K18">
         <f>LOOKUP(G18,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1897,11 +1897,11 @@
       </c>
       <c r="B19">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A19*LD!$A19*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>10.025025786601873</v>
+        <v>6.4790727978768743</v>
       </c>
       <c r="C19">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A19*LD!$A19*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.83541881555015618</v>
+        <v>0.53992273315640638</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
@@ -1913,11 +1913,11 @@
       </c>
       <c r="I19">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H19*Sheet1!$B$11))</f>
-        <v>32.197521894640531</v>
+        <v>35.910016682606667</v>
       </c>
       <c r="J19">
         <f>I19*I19*Sheet1!$B$2/2</f>
-        <v>51.834020807792825</v>
+        <v>64.476464907254453</v>
       </c>
       <c r="K19">
         <f>LOOKUP(G19,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1935,11 +1935,11 @@
       </c>
       <c r="B20">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A20*LD!$A20*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>11.239129255567496</v>
+        <v>7.2637355934674996</v>
       </c>
       <c r="C20">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A20*LD!$A20*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>0.93659410463062487</v>
+        <v>0.60531129945562501</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
@@ -1951,11 +1951,11 @@
       </c>
       <c r="I20">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H20*Sheet1!$B$11))</f>
-        <v>32.197521894640531</v>
+        <v>35.910016682606667</v>
       </c>
       <c r="J20">
         <f>I20*I20*Sheet1!$B$2/2</f>
-        <v>51.834020807792825</v>
+        <v>64.476464907254453</v>
       </c>
       <c r="K20">
         <f>LOOKUP(G20,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -1973,11 +1973,11 @@
       </c>
       <c r="B21">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A21*LD!$A21*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>12.522610065616872</v>
+        <v>8.0932362630918746</v>
       </c>
       <c r="C21">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A21*LD!$A21*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.0435508388014061</v>
+        <v>0.67443635525765622</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
@@ -1989,11 +1989,11 @@
       </c>
       <c r="I21">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H21*Sheet1!$B$11))</f>
-        <v>32.197521894640531</v>
+        <v>35.910016682606667</v>
       </c>
       <c r="J21">
         <f>I21*I21*Sheet1!$B$2/2</f>
-        <v>51.834020807792825</v>
+        <v>64.476464907254453</v>
       </c>
       <c r="K21">
         <f>LOOKUP(G21,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2011,11 +2011,11 @@
       </c>
       <c r="B22">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A22*LD!$A22*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>13.875468216749995</v>
+        <v>8.9675748067499992</v>
       </c>
       <c r="C22">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A22*LD!$A22*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.1562890180624998</v>
+        <v>0.74729790056250001</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
@@ -2027,11 +2027,11 @@
       </c>
       <c r="I22">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H22*Sheet1!$B$11))</f>
-        <v>47.65863707036533</v>
+        <v>53.153856308177311</v>
       </c>
       <c r="J22">
         <f>I22*I22*Sheet1!$B$2/2</f>
-        <v>113.56728437024003</v>
+        <v>141.26662202151803</v>
       </c>
       <c r="K22">
         <f>LOOKUP(G22,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2049,11 +2049,11 @@
       </c>
       <c r="B23">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A23*LD!$A23*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>15.297703708966869</v>
+        <v>9.8867512244418734</v>
       </c>
       <c r="C23">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A23*LD!$A23*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.2748086424139058</v>
+        <v>0.82389593537015626</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
@@ -2065,11 +2065,11 @@
       </c>
       <c r="I23">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H23*Sheet1!$B$11))</f>
-        <v>47.65863707036533</v>
+        <v>53.153856308177311</v>
       </c>
       <c r="J23">
         <f>I23*I23*Sheet1!$B$2/2</f>
-        <v>113.56728437024003</v>
+        <v>141.26662202151803</v>
       </c>
       <c r="K23">
         <f>LOOKUP(G23,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="B24">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A24*LD!$A24*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>16.789316542267496</v>
+        <v>10.850765516167501</v>
       </c>
       <c r="C24">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A24*LD!$A24*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.3991097118556246</v>
+        <v>0.90423045968062499</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
@@ -2103,11 +2103,11 @@
       </c>
       <c r="I24">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H24*Sheet1!$B$11))</f>
-        <v>47.65863707036533</v>
+        <v>53.153856308177311</v>
       </c>
       <c r="J24">
         <f>I24*I24*Sheet1!$B$2/2</f>
-        <v>113.56728437024003</v>
+        <v>141.26662202151803</v>
       </c>
       <c r="K24">
         <f>LOOKUP(G24,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2125,11 +2125,11 @@
       </c>
       <c r="B25">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A25*LD!$A25*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>18.350306716651868</v>
+        <v>11.859617681926874</v>
       </c>
       <c r="C25">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A25*LD!$A25*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.5291922263876556</v>
+        <v>0.98830147349390618</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
@@ -2141,11 +2141,11 @@
       </c>
       <c r="I25">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H25*Sheet1!$B$11))</f>
-        <v>47.65863707036533</v>
+        <v>53.153856308177311</v>
       </c>
       <c r="J25">
         <f>I25*I25*Sheet1!$B$2/2</f>
-        <v>113.56728437024003</v>
+        <v>141.26662202151803</v>
       </c>
       <c r="K25">
         <f>LOOKUP(G25,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2163,11 +2163,11 @@
       </c>
       <c r="B26">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A26*LD!$A26*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>19.980674232119995</v>
+        <v>12.913307721719999</v>
       </c>
       <c r="C26">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A26*LD!$A26*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.6650561860099993</v>
+        <v>1.0761089768100001</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
@@ -2179,11 +2179,11 @@
       </c>
       <c r="I26">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H26*Sheet1!$B$11))</f>
-        <v>47.65863707036533</v>
+        <v>53.153856308177311</v>
       </c>
       <c r="J26">
         <f>I26*I26*Sheet1!$B$2/2</f>
-        <v>113.56728437024003</v>
+        <v>141.26662202151803</v>
       </c>
       <c r="K26">
         <f>LOOKUP(G26,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2201,11 +2201,11 @@
       </c>
       <c r="B27">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A27*LD!$A27*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>21.680419088671869</v>
+        <v>14.011835635546873</v>
       </c>
       <c r="C27">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A27*LD!$A27*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.8067015907226556</v>
+        <v>1.1676529696289062</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
@@ -2217,11 +2217,11 @@
       </c>
       <c r="I27">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H27*Sheet1!$B$11))</f>
-        <v>70.982790263920421</v>
+        <v>79.167371665943264</v>
       </c>
       <c r="J27">
         <f>I27*I27*Sheet1!$B$2/2</f>
-        <v>251.92782568258582</v>
+        <v>313.37363682467981</v>
       </c>
       <c r="K27">
         <f>LOOKUP(G27,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2239,11 +2239,11 @@
       </c>
       <c r="B28">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A28*LD!$A28*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>23.449541286307493</v>
+        <v>15.155201423407499</v>
       </c>
       <c r="C28">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A28*LD!$A28*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>1.9541284405256245</v>
+        <v>1.262933451950625</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
@@ -2255,11 +2255,11 @@
       </c>
       <c r="I28">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H28*Sheet1!$B$11))</f>
-        <v>70.982790263920421</v>
+        <v>79.167371665943264</v>
       </c>
       <c r="J28">
         <f>I28*I28*Sheet1!$B$2/2</f>
-        <v>251.92782568258582</v>
+        <v>313.37363682467981</v>
       </c>
       <c r="K28">
         <f>LOOKUP(G28,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2277,11 +2277,11 @@
       </c>
       <c r="B29">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A29*LD!$A29*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>25.288040825026869</v>
+        <v>16.343405085301875</v>
       </c>
       <c r="C29">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A29*LD!$A29*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.1073367354189054</v>
+        <v>1.3619504237751561</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
@@ -2293,11 +2293,11 @@
       </c>
       <c r="I29">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H29*Sheet1!$B$11))</f>
-        <v>70.982790263920421</v>
+        <v>79.167371665943264</v>
       </c>
       <c r="J29">
         <f>I29*I29*Sheet1!$B$2/2</f>
-        <v>251.92782568258582</v>
+        <v>313.37363682467981</v>
       </c>
       <c r="K29">
         <f>LOOKUP(G29,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2315,11 +2315,11 @@
       </c>
       <c r="B30">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A30*LD!$A30*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>27.195917704829991</v>
+        <v>17.576446621230001</v>
       </c>
       <c r="C30">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A30*LD!$A30*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.266326475402499</v>
+        <v>1.4647038851024998</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
@@ -2331,11 +2331,11 @@
       </c>
       <c r="I30">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H30*Sheet1!$B$11))</f>
-        <v>70.982790263920421</v>
+        <v>79.167371665943264</v>
       </c>
       <c r="J30">
         <f>I30*I30*Sheet1!$B$2/2</f>
-        <v>251.92782568258582</v>
+        <v>313.37363682467981</v>
       </c>
       <c r="K30">
         <f>LOOKUP(G30,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2353,11 +2353,11 @@
       </c>
       <c r="B31">
         <f>Sheet1!$B$8*LD!$F$2*LD!$A31*LD!$A31*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>29.173171925716868</v>
+        <v>18.854326031191874</v>
       </c>
       <c r="C31">
         <f>Sheet1!$B$14*LD!$F$2*LD!$A31*LD!$A31*Sheet1!$B$11*Sheet1!$B$11/2</f>
-        <v>2.4310976604764054</v>
+        <v>1.5711938359326563</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
@@ -2369,11 +2369,11 @@
       </c>
       <c r="I31">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H31*Sheet1!$B$11))</f>
-        <v>70.982790263920421</v>
+        <v>79.167371665943264</v>
       </c>
       <c r="J31">
         <f>I31*I31*Sheet1!$B$2/2</f>
-        <v>251.92782568258582</v>
+        <v>313.37363682467981</v>
       </c>
       <c r="K31">
         <f>LOOKUP(G31,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="I32">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H32*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J32">
         <f>I32*I32*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K32">
         <f>LOOKUP(G32,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2421,11 +2421,11 @@
       </c>
       <c r="I33">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H33*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J33">
         <f>I33*I33*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K33">
         <f>LOOKUP(G33,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2447,11 +2447,11 @@
       </c>
       <c r="I34">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H34*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J34">
         <f>I34*I34*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K34">
         <f>LOOKUP(G34,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2473,11 +2473,11 @@
       </c>
       <c r="I35">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H35*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J35">
         <f>I35*I35*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K35">
         <f>LOOKUP(G35,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2499,11 +2499,11 @@
       </c>
       <c r="I36">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H36*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J36">
         <f>I36*I36*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K36">
         <f>LOOKUP(G36,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2525,11 +2525,11 @@
       </c>
       <c r="I37">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H37*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J37">
         <f>I37*I37*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K37">
         <f>LOOKUP(G37,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2551,11 +2551,11 @@
       </c>
       <c r="I38">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H38*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J38">
         <f>I38*I38*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K38">
         <f>LOOKUP(G38,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2577,11 +2577,11 @@
       </c>
       <c r="I39">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H39*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J39">
         <f>I39*I39*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K39">
         <f>LOOKUP(G39,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2603,11 +2603,11 @@
       </c>
       <c r="I40">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H40*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J40">
         <f>I40*I40*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K40">
         <f>LOOKUP(G40,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2629,11 +2629,11 @@
       </c>
       <c r="I41">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H41*Sheet1!$B$11))</f>
-        <v>104.7345640225158</v>
+        <v>116.81085126989612</v>
       </c>
       <c r="J41">
         <f>I41*I41*Sheet1!$B$2/2</f>
-        <v>548.46644504932306</v>
+        <v>682.2387487198896</v>
       </c>
       <c r="K41">
         <f>LOOKUP(G41,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
@@ -2655,11 +2655,11 @@
       </c>
       <c r="I42">
         <f>SQRT(2*Sheet1!$B$12/(Sheet1!$B$14*LD!H42*Sheet1!$B$11))</f>
-        <v>224.80407723155318</v>
+        <v>250.72482876537231</v>
       </c>
       <c r="J42">
         <f>I42*I42*Sheet1!$B$2/2</f>
-        <v>2526.8436569965065</v>
+        <v>3143.1469879712636</v>
       </c>
       <c r="K42">
         <f>LOOKUP(G42,'Standard Atmosphere'!$A$4:$A$24,'Standard Atmosphere'!$G$4:$G$24)</f>
